--- a/experimental_data/liver_volume/Urata1995.xlsx
+++ b/experimental_data/liver_volume/Urata1995.xlsx
@@ -8,14 +8,14 @@
     <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="154" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Ducry1979" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Urata1995" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="29">
   <si>
     <t>Urata1995 – Calculation of child and adult standard liver volume for transplantation</t>
   </si>
@@ -41,7 +41,10 @@
     <t>japaneses in 96 patients (65 pediatric and 31 adolescent)</t>
   </si>
   <si>
-    <t>Figure 1</t>
+    <t>Figure 2</t>
+  </si>
+  <si>
+    <t>Figure 3</t>
   </si>
   <si>
     <t>study</t>
@@ -62,16 +65,31 @@
     <t>Liver volume [ml]</t>
   </si>
   <si>
+    <t>Age [years]</t>
+  </si>
+  <si>
+    <t>Liver volume per body weight [ml/kg]</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>sex</t>
   </si>
   <si>
+    <t>ethnicity</t>
+  </si>
+  <si>
     <t>BSA</t>
   </si>
   <si>
-    <t>liverVol</t>
+    <t>volLiver</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>volLiverkg</t>
   </si>
   <si>
     <t>ura1995</t>
@@ -311,16 +329,16 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>465480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>522360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -335,8 +353,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5121000" y="1478520"/>
-          <a:ext cx="9283320" cy="4348080"/>
+          <a:off x="10953000" y="191880"/>
+          <a:ext cx="4564800" cy="2137680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -356,10 +374,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y96"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A61" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H11" activeCellId="0" pane="topLeft" sqref="H11:M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -459,34 +477,53 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="10" s="8">
       <c r="A10" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -502,36 +539,54 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>18</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>0.24188773</v>
@@ -539,1686 +594,3276 @@
       <c r="F12" s="4" t="n">
         <v>141.27083</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.7092945</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>46.996796</v>
+      </c>
       <c r="Q12" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>0.31116158</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="4" t="n">
         <v>226.94475</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>1.1846669</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>46.094902</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>0.33180344</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="4" t="n">
         <v>213.66074</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.51455593</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>42.29761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="n">
         <v>0.33205312</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="4" t="n">
         <v>283.04294</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.46621147</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>41.49781</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="n">
         <v>0.36286134</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="4" t="n">
         <v>220.16603</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1.9878386</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>39.091743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="n">
         <v>0.35257608</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="4" t="n">
         <v>236.71979</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.5577304</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>37.397476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="n">
         <v>0.37333682</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="4" t="n">
         <v>256.4749</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.1765073</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>37.099003</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="n">
         <v>0.39051855</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="4" t="n">
         <v>239.89838</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.36616647</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>36.198254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="n">
         <v>0.42158833</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="4" t="n">
         <v>249.70758</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.74684536</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>35.896732</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="n">
         <v>0.41821143</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="4" t="n">
         <v>269.54245</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.36544085</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>35.398262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="n">
         <v>0.39760527</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="4" t="n">
         <v>292.73822</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>-0.063491836</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>34.99998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4" t="n">
         <v>0.4010297</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="4" t="n">
         <v>286.119</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.74557555</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>34.49675</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="n">
         <v>0.45288402</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="4" t="n">
         <v>322.29117</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>1.2213107</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>33.99485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4" t="n">
         <v>0.5114089</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="4" t="n">
         <v>295.66617</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.6970496</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>33.496952</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="n">
         <v>0.43567854</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="4" t="n">
         <v>332.2599</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0.74367076</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>32.396774</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="n">
         <v>0.4186276</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="4" t="n">
         <v>385.17947</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0.7902012</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>31.196596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="n">
         <v>0.40822345</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="4" t="n">
         <v>368.6941</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0.4573226</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>31.697924</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="n">
         <v>0.39447808</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="4" t="n">
         <v>381.95532</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0.4087967</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>30.698126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4" t="n">
         <v>0.51195586</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="4" t="n">
         <v>447.64624</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0.45568997</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>29.897943</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4" t="n">
         <v>0.56723464</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="4" t="n">
         <v>477.1992</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0.5977303</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>28.997383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="4" t="n">
         <v>0.5808968</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="4" t="n">
         <v>440.81055</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.93060887</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>28.496056</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="n">
         <v>0.65663904</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="4" t="n">
         <v>407.52078</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>1.1671613</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>26.795122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4" t="n">
         <v>0.6536545</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="4" t="n">
         <v>536.3848</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1.4089745</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>30.894123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="4" t="n">
         <v>0.7538436</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="4" t="n">
         <v>588.91705</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1.9816709</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>32.29182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="4" t="n">
         <v>0.77098966</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="4" t="n">
         <v>562.4288</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>2.934502</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>32.788006</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="4" t="n">
         <v>0.81213063</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="4" t="n">
         <v>496.21378</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>2.747473</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>36.588726</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4" t="n">
         <v>0.8674689</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="4" t="n">
         <v>542.2863</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>4.936853</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>35.37998</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="n">
         <v>0.8813926</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="4" t="n">
         <v>578.5838</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>8.081876</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>37.76738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="4" t="n">
         <v>0.93311614</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="4" t="n">
         <v>578.4129</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>5.9828353</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>33.575806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="4" t="n">
         <v>0.82283205</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="4" t="n">
         <v>595.29706</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>7.0761647</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>31.471449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="4" t="n">
         <v>0.8333551</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="4" t="n">
         <v>644.8216</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>5.8851485</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>30.876219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="4" t="n">
         <v>0.8024518</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="4" t="n">
         <v>681.2672</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>5.5991635</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>30.577364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="4" t="n">
         <v>0.75766045</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="4" t="n">
         <v>691.327</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>3.9752238</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>25.183903</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="4" t="n">
         <v>0.78877777</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="4" t="n">
         <v>714.3519</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>6.928773</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>26.472078</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="4" t="n">
         <v>0.9854223</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="4" t="n">
         <v>740.13385</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>6.736393</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>24.372864</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" s="4" t="n">
         <v>0.9991201</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="4" t="n">
         <v>713.6569</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>7.7840986</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>24.468672</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="4" t="n">
         <v>1.0956588</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="4" t="n">
         <v>710.034</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>8.4543</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>28.365961</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" s="4" t="n">
         <v>1.0892974</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="4" t="n">
         <v>858.733</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>8.449856</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>23.466017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="4" t="n">
         <v>1.1273469</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="4" t="n">
         <v>891.6468</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>8.449312</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>22.866024</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="4" t="n">
         <v>1.2788671</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="4" t="n">
         <v>834.97894</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>10.02137</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>23.55973</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="4" t="n">
         <v>1.309699</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="4" t="n">
         <v>778.7099</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>9.784817</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>25.260664</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="4" t="n">
         <v>1.2551337</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="4" t="n">
         <v>947.3918</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>10.310711</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>27.558542</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="4" t="n">
         <v>1.275728</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="4" t="n">
         <v>920.89215</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>12.549977</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <v>28.849575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="4" t="n">
         <v>1.3171425</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="4" t="n">
         <v>930.6672</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>12.4040365</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <v>25.450186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="4" t="n">
         <v>1.406535</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F56" s="4" t="n">
         <v>857.6848</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>12.498639</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <v>24.749813</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="4" t="n">
         <v>1.4169391</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F57" s="4" t="n">
         <v>874.1702</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>12.019004</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>20.951761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="4" t="n">
         <v>1.3345739</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F58" s="4" t="n">
         <v>983.47284</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>12.301906</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>17.850653</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E59" s="4" t="n">
         <v>1.3828136</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F59" s="4" t="n">
         <v>973.4016</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>12.876688</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>21.548325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E60" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="4" t="n">
         <v>1.4414335</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F60" s="4" t="n">
         <v>973.2079</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>12.8303385</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>22.9485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61" s="4" t="n">
         <v>1.4828837</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F61" s="4" t="n">
         <v>992.8947</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>13.544259</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>22.545647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="4" t="n">
         <v>1.5241911</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F62" s="4" t="n">
         <v>972.9345</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>13.923396</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>20.544146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="4" t="n">
         <v>1.5174017</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F63" s="4" t="n">
         <v>1002.6925</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>13.92131</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>18.244173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="4" t="n">
         <v>1.5553442</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F64" s="4" t="n">
         <v>1005.8711</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>14.966748</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>15.84001</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="4" t="n">
         <v>1.3521718</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F65" s="4" t="n">
         <v>1082.5333</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>14.160493</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <v>19.443207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" s="4" t="n">
         <v>1.3969275</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F66" s="4" t="n">
         <v>1062.5618</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>14.922214</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <v>19.240162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="4" t="n">
         <v>1.431291</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F67" s="4" t="n">
         <v>1029.4087</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>15.921847</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>18.836166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="4" t="n">
         <v>1.4179736</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F68" s="4" t="n">
         <v>1161.6108</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>16.96919</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>18.531979</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="4" t="n">
         <v>1.4695188</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F69" s="4" t="n">
         <v>1111.8812</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>17.873495</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>18.028366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" s="4" t="n">
         <v>1.4831452</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F70" s="4" t="n">
         <v>1065.5808</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>17.01808</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>19.931772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="4" t="n">
         <v>1.5177703</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F71" s="4" t="n">
         <v>1105.1139</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>16.971186</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>20.731953</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E72" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="4" t="n">
         <v>1.4972949</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F72" s="4" t="n">
         <v>1164.6527</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>14.876771</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>21.640324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="4" t="n">
         <v>1.5453086</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F73" s="4" t="n">
         <v>1091.807</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>14.734459</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>22.240889</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E74" s="4" t="n">
         <v>1.5625498</v>
       </c>
-      <c r="F74" s="0" t="n">
+      <c r="F74" s="4" t="n">
         <v>1091.7501</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>14.973641</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>23.439922</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E75" s="4" t="n">
         <v>1.5936077</v>
       </c>
-      <c r="F75" s="0" t="n">
+      <c r="F75" s="4" t="n">
         <v>1098.2554</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>15.213006</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <v>24.838955</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="4" t="n">
         <v>1.5627877</v>
       </c>
-      <c r="F76" s="0" t="n">
+      <c r="F76" s="4" t="n">
         <v>1157.8284</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>15.544161</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <v>22.437649</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="4" t="n">
         <v>1.5559624</v>
       </c>
-      <c r="F77" s="0" t="n">
+      <c r="F77" s="4" t="n">
         <v>1177.6747</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>17.068419</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <v>22.931547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="4" t="n">
         <v>1.5698743</v>
       </c>
-      <c r="F78" s="0" t="n">
+      <c r="F78" s="4" t="n">
         <v>1210.6682</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>18.211363</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <v>23.026976</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" s="4" t="n">
         <v>1.624832</v>
       </c>
-      <c r="F79" s="0" t="n">
+      <c r="F79" s="4" t="n">
         <v>1151.0155</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>18.356396</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <v>25.426376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E80" s="4" t="n">
         <v>1.6317761</v>
       </c>
-      <c r="F80" s="0" t="n">
+      <c r="F80" s="4" t="n">
         <v>1164.2084</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>18.97517</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>25.123903</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="4" t="n">
         <v>1.6799562</v>
       </c>
-      <c r="F81" s="0" t="n">
+      <c r="F81" s="4" t="n">
         <v>1137.6176</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>18.829048</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>21.524515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="4" t="n">
         <v>1.6867932</v>
       </c>
-      <c r="F82" s="0" t="n">
+      <c r="F82" s="4" t="n">
         <v>1121.0752</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>18.970543</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>20.023962</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="4" t="n">
         <v>1.7451755</v>
       </c>
-      <c r="F83" s="0" t="n">
+      <c r="F83" s="4" t="n">
         <v>1054.8032</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>20.40047</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>21.51823</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="4" t="n">
         <v>1.6801227</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84" s="4" t="n">
         <v>1183.8723</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>20.493803</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>19.417873</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="4" t="n">
         <v>1.7215253</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85" s="4" t="n">
         <v>1190.3435</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>21.683004</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>18.013128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E86" s="4" t="n">
         <v>1.7285287</v>
       </c>
-      <c r="F86" s="0" t="n">
+      <c r="F86" s="4" t="n">
         <v>1220.0559</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>22.97316</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <v>22.907928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
       <c r="A87" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="4" t="n">
         <v>1.6699682</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="F87" s="4" t="n">
         <v>1236.7692</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>22.972343</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <v>22.007938</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
       <c r="A88" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="4" t="n">
         <v>1.6494097</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="F88" s="4" t="n">
         <v>1273.1805</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>22.876833</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <v>21.708323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" s="4" t="n">
         <v>1.6563655</v>
       </c>
-      <c r="F89" s="0" t="n">
+      <c r="F89" s="4" t="n">
         <v>1289.6774</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>23.447716</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <v>21.106045</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="4" t="n">
         <v>1.6702298</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="F90" s="4" t="n">
         <v>1309.4553</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>22.92282</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <v>19.908154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E91" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="4" t="n">
         <v>1.7184813</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="F91" s="4" t="n">
         <v>1302.688</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>23.922544</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <v>19.604156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
       <c r="A92" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="4" t="n">
         <v>1.6976849</v>
       </c>
-      <c r="F92" s="0" t="n">
+      <c r="F92" s="4" t="n">
         <v>1273.0211</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>24.970522</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <v>19.999962</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
       <c r="A93" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E93" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E93" s="4" t="n">
         <v>1.8217738</v>
       </c>
-      <c r="F93" s="0" t="n">
+      <c r="F93" s="4" t="n">
         <v>1259.3953</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>24.923265</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <v>20.400148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
       <c r="A94" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E94" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E94" s="4" t="n">
         <v>1.8493478</v>
       </c>
-      <c r="F94" s="0" t="n">
+      <c r="F94" s="4" t="n">
         <v>1256.0002</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>26.92471</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <v>21.99213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
       <c r="A95" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E95" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E95" s="4" t="n">
         <v>1.9222839</v>
       </c>
-      <c r="F95" s="0" t="n">
+      <c r="F95" s="4" t="n">
         <v>1401.1332</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>26.01714</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <v>18.895784</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
       <c r="A96" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D96" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="4" t="n">
         <v>1.805579</v>
       </c>
-      <c r="F96" s="0" t="n">
+      <c r="F96" s="4" t="n">
         <v>1550.1967</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>25.969158</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <v>18.49598</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
+      <c r="H97" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <v>26.969063</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <v>18.391981</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
+      <c r="H98" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <v>27.780127</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <v>20.088722</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
+      <c r="H99" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <v>27.018858</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <v>20.791763</v>
       </c>
     </row>
   </sheetData>
